--- a/assets/plantilla_camion.xlsx
+++ b/assets/plantilla_camion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intigobar-my.sharepoint.com/personal/psiklosi_inti_gob_ar/Documents/extract_camiones/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_A652BFD88C009AA27A2DEFB33DEEFBFD99302097" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A86D691-4318-43D2-BA55-87D5566B99B9}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_A652BFD88C009AA27A2DEFB33DEEFBFD99302097" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46075B7C-31FE-4CBE-AAC0-626EF740DA71}"/>
   <bookViews>
-    <workbookView xWindow="32520" yWindow="2460" windowWidth="21600" windowHeight="11295" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos vpe" sheetId="13" r:id="rId1"/>
@@ -68,6 +68,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>datos de la constacia de CUIT</t>
         </r>
@@ -79,6 +80,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>(*) ubicación del instrumento!!</t>
         </r>
@@ -90,6 +92,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Usuario:
 Número de disposción de AM que se baja del SOL.</t>
@@ -102,6 +105,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Usuario:
 Número de disposición de AM que se baja del SOL</t>
@@ -114,6 +118,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Usuario:
 Fecha de la disposición de AM que de baja del SOL.</t>
@@ -126,6 +131,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Usuario:
 Fecha de la disposición de AM que se baja del SOL.</t>
@@ -138,6 +144,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>El listado está en la columna I completar los datos cuando sea necesario</t>
         </r>
@@ -149,6 +156,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Razón social del solicitante de la OT</t>
         </r>
@@ -160,6 +168,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>CUIT corespondiente al solicitante de OT</t>
         </r>
@@ -171,6 +180,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Este dato no tiene impacto en las actas</t>
         </r>
@@ -193,6 +203,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Colocar:
 INGRESO o
@@ -206,6 +217,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Idem: INGRESO o EGRESO</t>
         </r>
@@ -217,6 +229,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Carga Aplicada:
 En caso que la carga utilizada para este ensayo difiera del cociente entre Máx./Cant. Apoyos, ingrese el valor manualmente.</t>
@@ -229,6 +242,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Sobrecarga:
 Ingrese el valor de carga (en múltiplos de 1/10 d) que provoca el cambio de indicación. El ingreso de estos valores es optativo para VPE y mandatorio para VPR</t>
@@ -241,6 +255,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Mariela:
 se muestra el el valor nominal de la carga sustituta, teniendo en cuenta el error de indicación que arrastramos</t>
@@ -253,6 +268,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Mariela:
 idem: se toma la indicación luego de ajustar para que salte con la misma sobrecarga que en la etapa anterior.</t>
@@ -265,6 +281,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Mariela:
 Idem: se toma el último valor de la columna F de la etapa anterior</t>
@@ -277,6 +294,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Mariela:
 Idem: sobrecarga con la cual salta la indicación al  finalizar la etapa anterior</t>
@@ -299,6 +317,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Seleccionar el ensayo que no pasa (según tipo de balanza). O seleccionar "Otro" para otro motivo de suspensión.</t>
         </r>
@@ -310,6 +329,7 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">colocar: HORA SIN MINUTOS (ej 15 ó 16)
 </t>
@@ -3321,6 +3341,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -8380,6 +8401,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8730,7 +8755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84371F7D-60C5-41CE-8872-EA9AA25126AB}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -9577,7 +9602,7 @@
       <c r="C25" s="1045"/>
       <c r="D25" s="1054">
         <f ca="1">TODAY()</f>
-        <v>45983</v>
+        <v>45993</v>
       </c>
       <c r="E25" s="1045"/>
       <c r="F25" s="1045"/>
@@ -35744,8 +35769,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:AR121"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36464,7 +36489,7 @@
       <c r="C29" s="993"/>
       <c r="D29" s="996">
         <f ca="1">TODAY()</f>
-        <v>45983</v>
+        <v>45993</v>
       </c>
       <c r="E29" s="995"/>
       <c r="F29" s="993"/>
@@ -37404,14 +37429,15 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="1.5748031496062991" header="0.59055118110236227" footer="1.181102362204725"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="1.5748031496062993" header="0.59055118110236227" footer="1.1811023622047245"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;G</oddHeader>
+    <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Negrita"&amp;8 Los resultados consignados se refieren a la muestra recibida y el INTI declina toda responsabilidad por el uso indebido
  o incorrecto que se hiciere de este informe. Está prohibida la reproducción parcial del presente certificado
 &amp;G</oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -37546,7 +37572,7 @@
       <c r="G1" s="880"/>
       <c r="H1" s="1024">
         <f ca="1">TODAY()</f>
-        <v>45983</v>
+        <v>45993</v>
       </c>
       <c r="I1" s="880"/>
     </row>
